--- a/biology/Origine et évolution du vivant/Empire_(biologie)/Empire_(biologie).xlsx
+++ b/biology/Origine et évolution du vivant/Empire_(biologie)/Empire_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie, l'empire (en latin imperium) est une catégorie taxonomique supérieure à celle du règne. Il est parfois considéré comme un synonyme du terme plus récent de domaine. Toutefois, ces notions ne se recouvrent pas totalement. En particulier, le terme d'empire est préféré dans le contexte de la systématique évolutionniste ou bien dans le cadre du « modèle à deux empires ».
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historiquement, c'est le terme empire qui a été proposé en premier, par analogie avec la domination d'un empire sur des royaumes vassaux (les « règnes » de la classification). Linné arrangeait tous les objets naturels à l'intérieur de trois règnes (minéral, végétal et animal) dont, à partir de la dixième édition (1758) du Systema Naturae, il définissait les frontières au sein de l'empire de la nature : Imperium Naturae. Dès 1766[1], Pallas divisait la nature en deux empires. Ce sont deux groupes (les corps bruts et les êtres organisés) que Pallas a placés au-dessus des règnes sous la dénomination d'empires : l'empire inorganique constitué par le règne minéral, et l'empire organique comprenant les deux règnes animal et végétal. Aujourd'hui on parle plutôt de monde inerte et de monde vivant.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, c'est le terme empire qui a été proposé en premier, par analogie avec la domination d'un empire sur des royaumes vassaux (les « règnes » de la classification). Linné arrangeait tous les objets naturels à l'intérieur de trois règnes (minéral, végétal et animal) dont, à partir de la dixième édition (1758) du Systema Naturae, il définissait les frontières au sein de l'empire de la nature : Imperium Naturae. Dès 1766, Pallas divisait la nature en deux empires. Ce sont deux groupes (les corps bruts et les êtres organisés) que Pallas a placés au-dessus des règnes sous la dénomination d'empires : l'empire inorganique constitué par le règne minéral, et l'empire organique comprenant les deux règnes animal et végétal. Aujourd'hui on parle plutôt de monde inerte et de monde vivant.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Le modèle à deux empires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XXe siècle, le terme d'empire a été employé pour désigner la structure radicalement différente des procaryotes et des eucaryotes (voir aussi plan d'organisation).
-Selon Thomas Cavalier-Smith (1998)[2] :
+Selon Thomas Cavalier-Smith (1998) :
 Empire Prokaryota
 Règne Bacteria
 Sous-règne Unibacteria
@@ -556,7 +572,7 @@
 Règne Fungi
 Règne Plantae
 Règne Chromista
-Voir également Mayr (1998)[3]
+Voir également Mayr (1998)
 </t>
         </is>
       </c>
@@ -585,13 +601,53 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pour la plupart des taxonomistes, le domaine est équivalent au superrègne. On trouve cependant parfois des classifications où le choix a été fait d'intercaler les rangs de sous-domaine et de superrègne entre le domaine et le règne.
-Des variantes de classification sont élaborées par glissement de rang des taxons supérieurs[4].
-Classification à deux domaines
-Selon Ernst Mayr (1990)
-En 1990, le systématicien évolutionniste Mayr retient un système naturel d'organismes à deux domaines divisés en quatre sous-domaines[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la plupart des taxonomistes, le domaine est équivalent au superrègne. On trouve cependant parfois des classifications où le choix a été fait d'intercaler les rangs de sous-domaine et de superrègne entre le domaine et le règne.
+Des variantes de classification sont élaborées par glissement de rang des taxons supérieurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification à deux domaines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Selon Ernst Mayr (1990)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1990, le systématicien évolutionniste Mayr retient un système naturel d'organismes à deux domaines divisés en quatre sous-domaines :
 Domaine Prokaryota (Monera)
 Sous-domaine Eubacteria
 Sous-domaine Archaebacteria
@@ -602,9 +658,47 @@
 Sous-domaine Metabionta
 Règne Metaphyta (plantes)
 Règne Fungi
-Règne Metazoa (animaux)
-Selon Radhey S. Gupta (1998)
-En 1998, Gupta propose une classification[6] à la suite de ses travaux sur les liens phylogénétiques et structuraux unissant les bactéries à Gram positif et les archébactéries.
+Règne Metazoa (animaux)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Classification à deux domaines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Selon Radhey S. Gupta (1998)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1998, Gupta propose une classification à la suite de ses travaux sur les liens phylogénétiques et structuraux unissant les bactéries à Gram positif et les archébactéries.
 Domaine Eucaryotae
 Domaine Procaryotae
 Sous-domaine Monodermata
@@ -614,28 +708,141 @@
 Sous-sous-domaine "bactéries à Gram positif"
 Division "Low G+C"
 Division "High G+C"
-Sous-domaine Didermata (bactéries à Gram négatif)
-Classification à deux superrègnes
-Selon Robert H. Wittaker et Lynn Margulis (1978)
-En 1978, Whittaker et Margulis s'accordent sur une classification des organismes suivant deux super règnes et cinq règnes[7] :
+Sous-domaine Didermata (bactéries à Gram négatif)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Classification à deux superrègnes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Selon Robert H. Wittaker et Lynn Margulis (1978)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1978, Whittaker et Margulis s'accordent sur une classification des organismes suivant deux super règnes et cinq règnes :
 Superrègne Prokaryota
 Règne I. Monera
 Superrègne Eukaryota
 Règne II. Protista ou Protoctista
 Règne III. Animalia
 Règne IV. Fungi
-Règne V. Plantae
-Selon Charles Jeffrey (1982)
-En 1982, le botaniste Jeffrey propose une classification à deux superrègnes développés différemment en cinq règnes[8] :
+Règne V. Plantae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Classification à deux superrègnes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Selon Charles Jeffrey (1982)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En 1982, le botaniste Jeffrey propose une classification à deux superrègnes développés différemment en cinq règnes :
 Superrègne Prokaryota
 Règne I. Bacteriobiota
 Règne II. Archeobacteriobiota
 Superrègne Eukaryota
 Règne III. Phytobiota
 Règne IV. Mycobiota
-Règne V. Zoobiota
-Selon Thomas Cavalier-Smith (1987)
-En 1987, Cavalier-Smith présente une classification rangée en deux superrègnes et sept règnes[9] :
+Règne V. Zoobiota</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Classification à deux superrègnes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Selon Thomas Cavalier-Smith (1987)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En 1987, Cavalier-Smith présente une classification rangée en deux superrègnes et sept règnes :
 Superrègne 1. Prokaryota
 Règne 1. Eubacteria
 Règne 2. Archaebacteria  (= Metabacteria)
@@ -644,9 +851,47 @@
 Règne 2. Chromista
 Règne 3. Fungi
 Règne 4. Plantae
-Règne 5. Animalia
-Selon Lynn Margulis et Michael J. Chapman (2009)
-Les biologistes Margulis et Chapman (2009)[10]
+Règne 5. Animalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Classification à deux superrègnes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Selon Lynn Margulis et Michael J. Chapman (2009)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les biologistes Margulis et Chapman (2009)
 proposent une classification taxonomique du vivant où le domaine est une division du règne et dont l'articulation entre taxons se résume ainsi :
 Superrègne Prokarya
 Règne Bacteria
@@ -656,9 +901,47 @@
 Règne Protoctista (Hogg 1860)
 Règne Animalia
 Règne Fungi
-Règne Plantae
-Selon Michael A. Ruggiero et al. (2015)
-Les biologistes Ruggiero et al. (2015)[11], incluant Cavalier-Smith, développent une classification des organismes vivants subdivisée en deux superrègnes et sept règnes, selon le schéma simplifié suivant :
+Règne Plantae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Classification à deux superrègnes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Selon Michael A. Ruggiero et al. (2015)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les biologistes Ruggiero et al. (2015), incluant Cavalier-Smith, développent une classification des organismes vivants subdivisée en deux superrègnes et sept règnes, selon le schéma simplifié suivant :
 Superrègne Prokaryota
 Règne Archaea  (= Archaebacteria)
 Règne Bacteria (= Eubacteria)
@@ -671,62 +954,66 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Empire_(biologie)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Empire_(biologie)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour les cladistes le modèle à deux empires n'est pas pertinent car il admet des taxons paraphylétiques comme les procaryotes[réf. nécessaire]. Cette critique n'est cependant pas acceptée par les évolutionnistes puisque selon eux, les groupes paraphylétiques peuvent servir à créer une classification[12].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les cladistes le modèle à deux empires n'est pas pertinent car il admet des taxons paraphylétiques comme les procaryotes[réf. nécessaire]. Cette critique n'est cependant pas acceptée par les évolutionnistes puisque selon eux, les groupes paraphylétiques peuvent servir à créer une classification.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Empire_(biologie)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Empire_(biologie)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Empire_(biologie)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Autres rangs taxonomiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rangs taxonomiques[a] utilisés en systématique pour la classification hiérarchique du monde vivant sont les suivants (par ordre décroissant) :
 Super-règne, Empire, Domaine (Superregnum, Imperium, Dominium)
